--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebProject\ProjectYixing\ProjectWebPackageYixing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4477E46-5F07-40CF-9C01-F20AA3925C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B645D-3874-47F2-AB54-17BE1AE65CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -90,10 +87,15 @@
     <t>subject</t>
   </si>
   <si>
-    <t>currenttime</t>
-  </si>
-  <si>
     <t>picture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>release_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -481,19 +483,19 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="34.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,77 +505,77 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -590,7 +592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -604,7 +606,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
